--- a/biology/Médecine/Catholicum_simple/Catholicum_simple.xlsx
+++ b/biology/Médecine/Catholicum_simple/Catholicum_simple.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le catholicum simple ou catholicum simplex était un remède de la famille des électuaires. Il venait après la thériaque et le diascordium au troisième rang de la pharmacopée maritime occidentale au XVIIIe siècle [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le catholicum simple ou catholicum simplex était un remède de la famille des électuaires. Il venait après la thériaque et le diascordium au troisième rang de la pharmacopée maritime occidentale au XVIIIe siècle .
 Il était composé selon le Dictionnaire des drogues de Meuve (1689) :
 polypode
 semences de fenouil
